--- a/test-data/8월_용역자명단_간단.xlsx
+++ b/test-data/8월_용역자명단_간단.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85041D9B-300D-49B2-A7C7-7A0B4715DD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46A6FEBF-5755-4C79-9771-9338AFF8B0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="2775" windowWidth="21645" windowHeight="13425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="20940" windowHeight="13815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="용역자명단" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>순번</t>
   </si>
@@ -153,6 +153,10 @@
   </si>
   <si>
     <t>영등포지사</t>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -568,27 +572,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="3" width="15" customWidth="1"/>
-    <col min="4" max="5" width="20" customWidth="1"/>
-    <col min="6" max="6" width="15" customWidth="1"/>
-    <col min="7" max="7" width="20" customWidth="1"/>
-    <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="20" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="12" width="20" customWidth="1"/>
-    <col min="13" max="14" width="15" customWidth="1"/>
+    <col min="2" max="4" width="15" customWidth="1"/>
+    <col min="5" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="20" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="20" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+    <col min="12" max="13" width="20" customWidth="1"/>
+    <col min="14" max="15" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,43 +600,46 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -643,40 +650,43 @@
         <v>16</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -687,40 +697,43 @@
         <v>26</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -731,36 +744,39 @@
         <v>36</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="2" t="s">
         <v>45</v>
       </c>
     </row>

--- a/test-data/8월_용역자명단_간단.xlsx
+++ b/test-data/8월_용역자명단_간단.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="8월 용역자명단" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2025-08 용역자명단" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -26,7 +26,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="맑은 고딕"/>
       <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="3">
@@ -38,8 +45,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCE5FF"/>
-        <bgColor rgb="00CCE5FF"/>
+        <fgColor rgb="004472C4"/>
+        <bgColor rgb="004472C4"/>
       </patternFill>
     </fill>
   </fills>
@@ -52,10 +59,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color rgb="00D3D3D3"/>
+      </left>
+      <right style="thin">
+        <color rgb="00D3D3D3"/>
+      </right>
+      <top style="thin">
+        <color rgb="00D3D3D3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="00D3D3D3"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,10 +81,12 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -435,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O8"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,16 +464,16 @@
     <col width="12" customWidth="1" min="2" max="2"/>
     <col width="12" customWidth="1" min="3" max="3"/>
     <col width="12" customWidth="1" min="4" max="4"/>
-    <col width="15" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="16" customWidth="1" min="6" max="6"/>
     <col width="12" customWidth="1" min="7" max="7"/>
-    <col width="15" customWidth="1" min="8" max="8"/>
+    <col width="16" customWidth="1" min="8" max="8"/>
     <col width="12" customWidth="1" min="9" max="9"/>
-    <col width="15" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
     <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="15" customWidth="1" min="12" max="12"/>
-    <col width="15" customWidth="1" min="13" max="13"/>
-    <col width="12" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="18" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
     <col width="12" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
@@ -537,528 +554,1128 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>2025-08-01</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>박철수</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>박철수</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>010-2222-1111</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
-        <is>
-          <t>900101-1111111</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>국민은행</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>222222222221</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
-        <is>
-          <t>김영수</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>010-1111-2222</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>최설계</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>010-9999-2222</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>무배당 건강보험Plus</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>동양생명</t>
-        </is>
-      </c>
-      <c r="O2" s="3" t="inlineStr">
-        <is>
-          <t>대구지사</t>
-        </is>
-      </c>
-    </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>2025-08-01</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>박철수</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>박철수2</t>
-        </is>
-      </c>
-      <c r="E3" s="3" t="inlineStr">
-        <is>
-          <t>010-2222-2222</t>
-        </is>
-      </c>
-      <c r="F3" s="3" t="inlineStr">
-        <is>
-          <t>920101-2111111</t>
-        </is>
-      </c>
-      <c r="G3" s="3" t="inlineStr">
-        <is>
-          <t>신한은행</t>
-        </is>
-      </c>
-      <c r="H3" s="3" t="inlineStr">
-        <is>
-          <t>222222222222</t>
-        </is>
-      </c>
-      <c r="I3" s="3" t="inlineStr">
-        <is>
-          <t>김영수</t>
-        </is>
-      </c>
-      <c r="J3" s="3" t="inlineStr">
-        <is>
-          <t>010-1111-2222</t>
-        </is>
-      </c>
-      <c r="K3" s="3" t="inlineStr">
-        <is>
-          <t>최설계</t>
-        </is>
-      </c>
-      <c r="L3" s="3" t="inlineStr">
-        <is>
-          <t>010-9999-2222</t>
+          <t>2025-08</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>han001</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>한예진</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="inlineStr">
+        <is>
+          <t>010-5001-5001</t>
+        </is>
+      </c>
+      <c r="F3" s="2" t="inlineStr">
+        <is>
+          <t>910101-2234567</t>
+        </is>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>국민은행</t>
+        </is>
+      </c>
+      <c r="H3" s="2" t="inlineStr">
+        <is>
+          <t>100-200-300001</t>
+        </is>
+      </c>
+      <c r="I3" s="2" t="inlineStr">
+        <is>
+          <t>박철수3</t>
+        </is>
+      </c>
+      <c r="J3" s="2" t="inlineStr">
+        <is>
+          <t>010-4446-4446</t>
+        </is>
+      </c>
+      <c r="K3" s="2" t="inlineStr">
+        <is>
+          <t>가설계</t>
+        </is>
+      </c>
+      <c r="L3" s="2" t="inlineStr">
+        <is>
+          <t>010-8001-0001</t>
         </is>
       </c>
       <c r="M3" s="3" t="inlineStr">
         <is>
-          <t>무배당 건강생활보험</t>
-        </is>
-      </c>
-      <c r="N3" s="3" t="inlineStr">
-        <is>
-          <t>KB생명</t>
-        </is>
-      </c>
-      <c r="O3" s="3" t="inlineStr">
-        <is>
-          <t>인천지사</t>
+          <t>현대해상 암보험</t>
+        </is>
+      </c>
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>현대해상</t>
+        </is>
+      </c>
+      <c r="O3" s="2" t="inlineStr">
+        <is>
+          <t>서초지점</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>2025-08-02</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>박철수</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
+          <t>2025-08</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>han001</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>한예진2</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>010-5002-5002</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>910102-2234567</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>국민은행</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>100-200-300002</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
         <is>
           <t>박철수3</t>
         </is>
       </c>
-      <c r="E4" s="3" t="inlineStr">
-        <is>
-          <t>010-2222-3333</t>
-        </is>
-      </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>880101-1111111</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>우리은행</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="inlineStr">
-        <is>
-          <t>222222222223</t>
-        </is>
-      </c>
-      <c r="I4" s="3" t="inlineStr">
-        <is>
-          <t>이미영</t>
-        </is>
-      </c>
-      <c r="J4" s="3" t="inlineStr">
-        <is>
-          <t>010-1111-3333</t>
-        </is>
-      </c>
-      <c r="K4" s="3" t="inlineStr">
-        <is>
-          <t>최설계</t>
-        </is>
-      </c>
-      <c r="L4" s="3" t="inlineStr">
-        <is>
-          <t>010-9999-2222</t>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>010-4446-4446</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>나설계</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>010-8002-0002</t>
         </is>
       </c>
       <c r="M4" s="3" t="inlineStr">
         <is>
-          <t>무배당 OK라이프건강보험</t>
-        </is>
-      </c>
-      <c r="N4" s="3" t="inlineStr">
-        <is>
-          <t>교보생명</t>
-        </is>
-      </c>
-      <c r="O4" s="3" t="inlineStr">
-        <is>
-          <t>서울지사</t>
+          <t>DB손해보험 운전자보험</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>DB손해보험</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>송파지점</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>2025-08-05</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
+          <t>2025-08</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>han001</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>한예진3</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>010-5003-5003</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>910103-2234567</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>국민은행</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>100-200-300003</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>강민지</t>
         </is>
       </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>강민지</t>
-        </is>
-      </c>
-      <c r="E5" s="3" t="inlineStr">
-        <is>
-          <t>010-2222-4444</t>
-        </is>
-      </c>
-      <c r="F5" s="3" t="inlineStr">
-        <is>
-          <t>950101-2111111</t>
-        </is>
-      </c>
-      <c r="G5" s="3" t="inlineStr">
-        <is>
-          <t>국민은행</t>
-        </is>
-      </c>
-      <c r="H5" s="3" t="inlineStr">
-        <is>
-          <t>222222222224</t>
-        </is>
-      </c>
-      <c r="I5" s="3" t="inlineStr">
-        <is>
-          <t>이미영</t>
-        </is>
-      </c>
-      <c r="J5" s="3" t="inlineStr">
-        <is>
-          <t>010-1111-3333</t>
-        </is>
-      </c>
-      <c r="K5" s="3" t="inlineStr">
-        <is>
-          <t>최설계</t>
-        </is>
-      </c>
-      <c r="L5" s="3" t="inlineStr">
-        <is>
-          <t>010-9999-2222</t>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>010-5555-5555</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>다설계</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>010-8003-0003</t>
         </is>
       </c>
       <c r="M5" s="3" t="inlineStr">
         <is>
-          <t>무배당 하이라이프건강보험</t>
-        </is>
-      </c>
-      <c r="N5" s="3" t="inlineStr">
-        <is>
-          <t>삼성생명</t>
-        </is>
-      </c>
-      <c r="O5" s="3" t="inlineStr">
-        <is>
-          <t>경기지사</t>
+          <t>KB손해보험 여행자보험</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>KB손해보험</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>광화문지점</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>2025-08-10</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>박철수</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>박철수4</t>
-        </is>
-      </c>
-      <c r="E6" s="3" t="inlineStr">
-        <is>
-          <t>010-2222-5555</t>
-        </is>
-      </c>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>870101-1111111</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="inlineStr">
+          <t>2025-08</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>hwang001</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>황민정</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>010-5004-5004</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>920201-2234567</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>신한은행</t>
         </is>
       </c>
-      <c r="H6" s="3" t="inlineStr">
-        <is>
-          <t>222222222225</t>
-        </is>
-      </c>
-      <c r="I6" s="3" t="inlineStr">
-        <is>
-          <t>박철수</t>
-        </is>
-      </c>
-      <c r="J6" s="3" t="inlineStr">
-        <is>
-          <t>010-2222-1111</t>
-        </is>
-      </c>
-      <c r="K6" s="3" t="inlineStr">
-        <is>
-          <t>최설계</t>
-        </is>
-      </c>
-      <c r="L6" s="3" t="inlineStr">
-        <is>
-          <t>010-9999-2222</t>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>200-300-400001</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>강민지</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>010-5555-5555</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>라설계</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>010-8004-0004</t>
         </is>
       </c>
       <c r="M6" s="3" t="inlineStr">
         <is>
-          <t>무배당 NEW건강사랑</t>
-        </is>
-      </c>
-      <c r="N6" s="3" t="inlineStr">
-        <is>
-          <t>한화생명</t>
-        </is>
-      </c>
-      <c r="O6" s="3" t="inlineStr">
-        <is>
-          <t>부산지사</t>
+          <t>메리츠화재 건강보험</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>메리츠화재</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>종로지점</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>2025-08-15</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
+          <t>2025-08</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>hwang001</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>황민정2</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>010-5005-5005</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>920202-2234567</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>신한은행</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>200-300-400002</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>이순신</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>이순신</t>
-        </is>
-      </c>
-      <c r="E7" s="3" t="inlineStr">
-        <is>
-          <t>010-2222-6666</t>
-        </is>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>890101-1111111</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>우리은행</t>
-        </is>
-      </c>
-      <c r="H7" s="3" t="inlineStr">
-        <is>
-          <t>222222222226</t>
-        </is>
-      </c>
-      <c r="I7" s="3" t="inlineStr">
-        <is>
-          <t>박철수</t>
-        </is>
-      </c>
-      <c r="J7" s="3" t="inlineStr">
-        <is>
-          <t>010-2222-1111</t>
-        </is>
-      </c>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>최설계</t>
-        </is>
-      </c>
-      <c r="L7" s="3" t="inlineStr">
-        <is>
-          <t>010-9999-2222</t>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>010-6666-6666</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>마설계</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>010-8005-0005</t>
         </is>
       </c>
       <c r="M7" s="3" t="inlineStr">
         <is>
-          <t>무배당 건강보험Plus</t>
-        </is>
-      </c>
-      <c r="N7" s="3" t="inlineStr">
-        <is>
-          <t>동양생명</t>
-        </is>
-      </c>
-      <c r="O7" s="3" t="inlineStr">
-        <is>
-          <t>대구지사</t>
+          <t>삼성화재 실손보험</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>삼성화재</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>강남지점</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>2025-08</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>hwang001</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>황민정3</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>010-5006-5006</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>920203-2234567</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>신한은행</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>200-300-400003</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>이순신</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>010-6666-6666</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>바설계</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>010-8006-0006</t>
+        </is>
+      </c>
+      <c r="M8" s="3" t="inlineStr">
+        <is>
+          <t>현대해상 암보험</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>현대해상</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>서초지점</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="2" t="inlineStr">
-        <is>
-          <t>2025-08-20</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>2025-08</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>shin001</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>신윤복</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>010-5007-5007</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>930301-2234567</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>우리은행</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>300-400-500001</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
         <is>
           <t>김유신</t>
         </is>
       </c>
-      <c r="D8" s="3" t="inlineStr">
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>010-7777-7777</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>사설계</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>010-8007-0007</t>
+        </is>
+      </c>
+      <c r="M9" s="3" t="inlineStr">
+        <is>
+          <t>DB손해보험 운전자보험</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>DB손해보험</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>송파지점</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>2025-08</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>shin001</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>신윤복2</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>010-5008-5008</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>930302-2234567</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>우리은행</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>300-400-500002</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>김유신</t>
         </is>
       </c>
-      <c r="E8" s="3" t="inlineStr">
-        <is>
-          <t>010-2222-7777</t>
-        </is>
-      </c>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>910101-1111111</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>국민은행</t>
-        </is>
-      </c>
-      <c r="H8" s="3" t="inlineStr">
-        <is>
-          <t>222222222227</t>
-        </is>
-      </c>
-      <c r="I8" s="3" t="inlineStr">
-        <is>
-          <t>박철수</t>
-        </is>
-      </c>
-      <c r="J8" s="3" t="inlineStr">
-        <is>
-          <t>010-2222-2222</t>
-        </is>
-      </c>
-      <c r="K8" s="3" t="inlineStr">
-        <is>
-          <t>최설계</t>
-        </is>
-      </c>
-      <c r="L8" s="3" t="inlineStr">
-        <is>
-          <t>010-9999-2222</t>
-        </is>
-      </c>
-      <c r="M8" s="3" t="inlineStr">
-        <is>
-          <t>무배당 건강생활보험</t>
-        </is>
-      </c>
-      <c r="N8" s="3" t="inlineStr">
-        <is>
-          <t>KB생명</t>
-        </is>
-      </c>
-      <c r="O8" s="3" t="inlineStr">
-        <is>
-          <t>인천지사</t>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>010-7777-7777</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>아설계</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>010-8008-0008</t>
+        </is>
+      </c>
+      <c r="M10" s="3" t="inlineStr">
+        <is>
+          <t>KB손해보험 여행자보험</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>KB손해보험</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>광화문지점</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>2025-08</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>shin001</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>신윤복3</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>010-5009-5009</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>930303-2234567</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>우리은행</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>300-400-500003</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>조동현</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>010-8888-8888</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>자설계</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>010-8009-0009</t>
+        </is>
+      </c>
+      <c r="M11" s="3" t="inlineStr">
+        <is>
+          <t>메리츠화재 건강보험</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>메리츠화재</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>종로지점</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>2025-08</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>jung001</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>정선</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>010-5010-5010</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>940401-1234567</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>하나은행</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>400-500-600001</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>조동현</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>010-8888-8888</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>차설계</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>010-8010-0010</t>
+        </is>
+      </c>
+      <c r="M12" s="3" t="inlineStr">
+        <is>
+          <t>삼성화재 실손보험</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>삼성화재</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>강남지점</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>2025-08</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>jung001</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>정선2</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>010-5011-5011</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>940402-1234567</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>하나은행</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>400-500-600002</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>한예진</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>010-5001-5001</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>카설계</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>010-8011-0011</t>
+        </is>
+      </c>
+      <c r="M13" s="3" t="inlineStr">
+        <is>
+          <t>현대해상 암보험</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>현대해상</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>서초지점</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>2025-08</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>jung001</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>정선3</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>010-5012-5012</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>940403-1234567</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>하나은행</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>400-500-600003</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>한예진</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>010-5001-5001</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>타설계</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>010-8012-0012</t>
+        </is>
+      </c>
+      <c r="M14" s="3" t="inlineStr">
+        <is>
+          <t>DB손해보험 운전자보험</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>DB손해보험</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>송파지점</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>2025-08</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>park002</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>박지원</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>010-5013-5013</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>950501-2234567</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>KB국민은행</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>500-600-700001</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>한예진2</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>010-5002-5002</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>파설계</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>010-8013-0013</t>
+        </is>
+      </c>
+      <c r="M15" s="3" t="inlineStr">
+        <is>
+          <t>KB손해보험 여행자보험</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>KB손해보험</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>광화문지점</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>2025-08</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>park002</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>박지원2</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>010-5014-5014</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>950502-2234567</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>KB국민은행</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>500-600-700002</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>한예진2</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>010-5002-5002</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>하설계</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>010-8014-0014</t>
+        </is>
+      </c>
+      <c r="M16" s="3" t="inlineStr">
+        <is>
+          <t>메리츠화재 건강보험</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>메리츠화재</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>종로지점</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>2025-08</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>park002</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>박지원3</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>010-5015-5015</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>950503-2234567</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>KB국민은행</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>500-600-700003</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>한예진3</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>010-5003-5003</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>가설계</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>010-8015-0015</t>
+        </is>
+      </c>
+      <c r="M17" s="3" t="inlineStr">
+        <is>
+          <t>삼성화재 실손보험</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>삼성화재</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>강남지점</t>
         </is>
       </c>
     </row>

--- a/test-data/8월_용역자명단_간단.xlsx
+++ b/test-data/8월_용역자명단_간단.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -554,9 +554,84 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>2025-08</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>한예진</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>한예진</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>010-1234-5678</t>
+        </is>
+      </c>
+      <c r="F2" s="2" t="inlineStr">
+        <is>
+          <t>910101-2234567</t>
+        </is>
+      </c>
+      <c r="G2" s="2" t="inlineStr">
+        <is>
+          <t>국민은행</t>
+        </is>
+      </c>
+      <c r="H2" s="2" t="inlineStr">
+        <is>
+          <t>100-200-300001</t>
+        </is>
+      </c>
+      <c r="I2" s="2" t="inlineStr">
+        <is>
+          <t>박철수3</t>
+        </is>
+      </c>
+      <c r="J2" s="2" t="inlineStr">
+        <is>
+          <t>010-1234-5678</t>
+        </is>
+      </c>
+      <c r="K2" s="2" t="inlineStr">
+        <is>
+          <t>가설계</t>
+        </is>
+      </c>
+      <c r="L2" s="2" t="inlineStr">
+        <is>
+          <t>010-1234-5678</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>삼성화재 실손보험</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>삼성화재</t>
+        </is>
+      </c>
+      <c r="O2" s="2" t="inlineStr">
+        <is>
+          <t>강남지점</t>
+        </is>
+      </c>
+    </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
@@ -565,22 +640,22 @@
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>han001</t>
+          <t>한예진</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
         <is>
-          <t>한예진</t>
+          <t>한예진2</t>
         </is>
       </c>
       <c r="E3" s="2" t="inlineStr">
         <is>
-          <t>010-5001-5001</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F3" s="2" t="inlineStr">
         <is>
-          <t>910101-2234567</t>
+          <t>910102-2234567</t>
         </is>
       </c>
       <c r="G3" s="2" t="inlineStr">
@@ -590,7 +665,7 @@
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>100-200-300001</t>
+          <t>100-200-300002</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
@@ -600,17 +675,17 @@
       </c>
       <c r="J3" s="2" t="inlineStr">
         <is>
-          <t>010-4446-4446</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K3" s="2" t="inlineStr">
         <is>
-          <t>가설계</t>
+          <t>나설계</t>
         </is>
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>010-8001-0001</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M3" s="3" t="inlineStr">
@@ -631,7 +706,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
@@ -640,22 +715,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>han001</t>
+          <t>한예진</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>한예진2</t>
+          <t>한예진3</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>010-5002-5002</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>910102-2234567</t>
+          <t>910103-2234567</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -665,27 +740,27 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>100-200-300002</t>
+          <t>100-200-300003</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>박철수3</t>
+          <t>강민지</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>010-4446-4446</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>나설계</t>
+          <t>다설계</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>010-8002-0002</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M4" s="3" t="inlineStr">
@@ -706,7 +781,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
@@ -715,32 +790,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>han001</t>
+          <t>황민정</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>한예진3</t>
+          <t>황민정</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>010-5003-5003</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>910103-2234567</t>
+          <t>920201-2234567</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>국민은행</t>
+          <t>신한은행</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>100-200-300003</t>
+          <t>200-300-400001</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -750,17 +825,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>010-5555-5555</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>다설계</t>
+          <t>라설계</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>010-8003-0003</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M5" s="3" t="inlineStr">
@@ -781,7 +856,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
@@ -790,22 +865,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>hwang001</t>
+          <t>황민정</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>황민정</t>
+          <t>황민정2</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>010-5004-5004</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>920201-2234567</t>
+          <t>920202-2234567</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -815,27 +890,27 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>200-300-400001</t>
+          <t>200-300-400002</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>강민지</t>
+          <t>이순신</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>010-5555-5555</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>라설계</t>
+          <t>마설계</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>010-8004-0004</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M6" s="3" t="inlineStr">
@@ -856,7 +931,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
@@ -865,22 +940,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>hwang001</t>
+          <t>황민정</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>황민정2</t>
+          <t>황민정3</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>010-5005-5005</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>920202-2234567</t>
+          <t>920203-2234567</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -890,7 +965,7 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>200-300-400002</t>
+          <t>200-300-400003</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -900,17 +975,17 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>010-6666-6666</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>마설계</t>
+          <t>바설계</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>010-8005-0005</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M7" s="3" t="inlineStr">
@@ -931,7 +1006,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
@@ -940,52 +1015,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>hwang001</t>
+          <t>신윤복</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>황민정3</t>
+          <t>신윤복</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>010-5006-5006</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>920203-2234567</t>
+          <t>930301-2234567</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>신한은행</t>
+          <t>우리은행</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>200-300-400003</t>
+          <t>300-400-500001</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>이순신</t>
+          <t>김유신</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>010-6666-6666</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>바설계</t>
+          <t>사설계</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>010-8006-0006</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M8" s="3" t="inlineStr">
@@ -1006,7 +1081,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
@@ -1015,22 +1090,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>shin001</t>
+          <t>신윤복</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>신윤복</t>
+          <t>신윤복2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>010-5007-5007</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>930301-2234567</t>
+          <t>930302-2234567</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1040,7 +1115,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>300-400-500001</t>
+          <t>300-400-500002</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -1050,17 +1125,17 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>010-7777-7777</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>사설계</t>
+          <t>아설계</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>010-8007-0007</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M9" s="3" t="inlineStr">
@@ -1081,7 +1156,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
@@ -1090,22 +1165,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>shin001</t>
+          <t>신윤복</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>신윤복2</t>
+          <t>신윤복3</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>010-5008-5008</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>930302-2234567</t>
+          <t>930303-2234567</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1115,27 +1190,27 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>300-400-500002</t>
+          <t>300-400-500003</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>김유신</t>
+          <t>조동현</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>010-7777-7777</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>아설계</t>
+          <t>자설계</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>010-8008-0008</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M10" s="3" t="inlineStr">
@@ -1156,7 +1231,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
@@ -1165,32 +1240,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>shin001</t>
+          <t>정선</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>신윤복3</t>
+          <t>정선</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>010-5009-5009</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>930303-2234567</t>
+          <t>940401-1234567</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>우리은행</t>
+          <t>하나은행</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>300-400-500003</t>
+          <t>400-500-600001</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1200,17 +1275,17 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>010-8888-8888</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>자설계</t>
+          <t>차설계</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>010-8009-0009</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M11" s="3" t="inlineStr">
@@ -1231,7 +1306,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
@@ -1240,22 +1315,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>jung001</t>
+          <t>정선</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>정선</t>
+          <t>정선2</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>010-5010-5010</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>940401-1234567</t>
+          <t>940402-1234567</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1265,27 +1340,27 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>400-500-600001</t>
+          <t>400-500-600002</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>조동현</t>
+          <t>한예진</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>010-8888-8888</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>차설계</t>
+          <t>카설계</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>010-8010-0010</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M12" s="3" t="inlineStr">
@@ -1306,7 +1381,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
@@ -1315,22 +1390,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>jung001</t>
+          <t>정선</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>정선2</t>
+          <t>정선3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>010-5011-5011</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>940402-1234567</t>
+          <t>940403-1234567</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1340,7 +1415,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>400-500-600002</t>
+          <t>400-500-600003</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1350,17 +1425,17 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>010-5001-5001</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>카설계</t>
+          <t>타설계</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>010-8011-0011</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M13" s="3" t="inlineStr">
@@ -1381,7 +1456,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
@@ -1390,52 +1465,52 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>jung001</t>
+          <t>박지원</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>정선3</t>
+          <t>박지원</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>010-5012-5012</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>940403-1234567</t>
+          <t>950501-2234567</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>하나은행</t>
+          <t>KB국민은행</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>400-500-600003</t>
+          <t>500-600-700001</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>한예진</t>
+          <t>한예진2</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>010-5001-5001</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>타설계</t>
+          <t>파설계</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>010-8012-0012</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M14" s="3" t="inlineStr">
@@ -1456,7 +1531,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
@@ -1465,22 +1540,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>park002</t>
+          <t>박지원</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>박지원</t>
+          <t>박지원2</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>010-5013-5013</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>950501-2234567</t>
+          <t>950502-2234567</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1490,7 +1565,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>500-600-700001</t>
+          <t>500-600-700002</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1500,17 +1575,17 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>010-5002-5002</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>파설계</t>
+          <t>하설계</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>010-8013-0013</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M15" s="3" t="inlineStr">
@@ -1531,7 +1606,7 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
@@ -1540,22 +1615,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>park002</t>
+          <t>박지원</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>박지원2</t>
+          <t>박지원3</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>010-5014-5014</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>950502-2234567</t>
+          <t>950503-2234567</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1565,27 +1640,27 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>500-600-700002</t>
+          <t>500-600-700003</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>한예진2</t>
+          <t>한예진3</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>010-5002-5002</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>하설계</t>
+          <t>가설계</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>010-8014-0014</t>
+          <t>010-1234-5678</t>
         </is>
       </c>
       <c r="M16" s="3" t="inlineStr">
@@ -1601,81 +1676,6 @@
       <c r="O16" s="2" t="inlineStr">
         <is>
           <t>종로지점</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>2025-08</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>park002</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>박지원3</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>010-5015-5015</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>950503-2234567</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>KB국민은행</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>500-600-700003</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>한예진3</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>010-5003-5003</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>가설계</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>010-8015-0015</t>
-        </is>
-      </c>
-      <c r="M17" s="3" t="inlineStr">
-        <is>
-          <t>삼성화재 실손보험</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>삼성화재</t>
-        </is>
-      </c>
-      <c r="O17" s="2" t="inlineStr">
-        <is>
-          <t>강남지점</t>
         </is>
       </c>
     </row>

--- a/test-data/8월_용역자명단_간단.xlsx
+++ b/test-data/8월_용역자명단_간단.xlsx
@@ -436,7 +436,7 @@
   <cols>
     <col width="4.8" customWidth="1" min="1" max="1"/>
     <col width="14.4" customWidth="1" min="2" max="2"/>
-    <col width="7.199999999999999" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="7.199999999999999" customWidth="1" min="4" max="4"/>
     <col width="18" customWidth="1" min="5" max="5"/>
     <col width="19.2" customWidth="1" min="6" max="6"/>
@@ -446,9 +446,9 @@
     <col width="18" customWidth="1" min="10" max="10"/>
     <col width="7.199999999999999" customWidth="1" min="11" max="11"/>
     <col width="18" customWidth="1" min="12" max="12"/>
-    <col width="8.4" customWidth="1" min="13" max="13"/>
-    <col width="7.199999999999999" customWidth="1" min="14" max="14"/>
-    <col width="10.8" customWidth="1" min="15" max="15"/>
+    <col width="22.8" customWidth="1" min="13" max="13"/>
+    <col width="9.6" customWidth="1" min="14" max="14"/>
+    <col width="7.199999999999999" customWidth="1" min="15" max="15"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -569,7 +569,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>이미영</t>
+          <t>박철수2</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -587,11 +587,19 @@
           <t>010-8749-8727</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>무배당 메리츠 안심케어</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>메리츠화재</t>
+        </is>
+      </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2025-08</t>
+          <t>분당지사</t>
         </is>
       </c>
     </row>
@@ -606,14 +614,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>한예진</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>한예진2</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>한예진2</t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>010-2148-3132</t>
@@ -636,7 +644,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>강민지</t>
+          <t>김유신</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -654,11 +662,19 @@
           <t>010-8772-8756</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>무배당 DB손해보험 프리미엄</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>DB손해보험</t>
+        </is>
+      </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2025-08</t>
+          <t>인천지사</t>
         </is>
       </c>
     </row>
@@ -721,11 +737,19 @@
           <t>010-8795-8785</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>무배당 현대해상 평생케어</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>현대해상</t>
+        </is>
+      </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2025-08</t>
+          <t>경기지사</t>
         </is>
       </c>
     </row>
@@ -740,14 +764,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>황민정</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>황민정2</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>황민정2</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>010-2162-3158</t>
@@ -788,11 +812,19 @@
           <t>010-8818-8814</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>무배당 AIA 건강플랜</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>AIA생명</t>
+        </is>
+      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2025-08</t>
+          <t>부산지사</t>
         </is>
       </c>
     </row>
@@ -855,11 +887,19 @@
           <t>010-8841-8843</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>무배당 푸르덴셜 가족사랑</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>푸르덴셜생명</t>
+        </is>
+      </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2025-08</t>
+          <t>대구지사</t>
         </is>
       </c>
     </row>
@@ -874,14 +914,14 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>신윤복</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>신윤복2</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>신윤복2</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>010-2176-3184</t>
@@ -904,7 +944,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>한예진2</t>
+          <t>신윤복</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -922,11 +962,19 @@
           <t>010-8864-8872</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>무배당 교보생명 안심보장</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>교보생명</t>
+        </is>
+      </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2025-08</t>
+          <t>광주지사</t>
         </is>
       </c>
     </row>
@@ -971,7 +1019,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>박철수4</t>
+          <t>박철수3</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -989,11 +1037,19 @@
           <t>010-8887-8901</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>무배당 한화생명 든든플랜</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>한화생명</t>
+        </is>
+      </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2025-08</t>
+          <t>대전지사</t>
         </is>
       </c>
     </row>
@@ -1008,14 +1064,14 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>정선</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>정선2</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>정선2</t>
-        </is>
-      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>010-2190-3210</t>
@@ -1038,7 +1094,7 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>정선</t>
+          <t>이순신</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1056,11 +1112,19 @@
           <t>010-8910-8930</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>무배당 KB 5.10.10 플랜</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>KB손해보험</t>
+        </is>
+      </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2025-08</t>
+          <t>서울본사</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1169,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>한예진</t>
+          <t>정선</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1123,11 +1187,19 @@
           <t>010-8933-8959</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>(무) 하나로 든든한 내일</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>하나생명</t>
+        </is>
+      </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2025-08</t>
+          <t>강남지사</t>
         </is>
       </c>
     </row>
@@ -1142,14 +1214,14 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>박지원</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>박지원2</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>박지원2</t>
-        </is>
-      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>010-2204-3236</t>
@@ -1172,7 +1244,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>신윤복</t>
+          <t>김유신</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1190,11 +1262,19 @@
           <t>010-8956-8988</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>무배당 삼성화재 든든한 미래</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>삼성화재</t>
+        </is>
+      </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2025-08</t>
+          <t>강북지사</t>
         </is>
       </c>
     </row>
@@ -1209,14 +1289,14 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>박지원</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>박지원3</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>박지원3</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>010-2211-3249</t>
@@ -1239,7 +1319,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>황민정</t>
+          <t>한예진</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1257,11 +1337,19 @@
           <t>010-8979-9017</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>무배당 메리츠 안심케어</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>메리츠화재</t>
+        </is>
+      </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2025-08</t>
+          <t>분당지사</t>
         </is>
       </c>
     </row>
@@ -1306,7 +1394,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>신윤복2</t>
+          <t>정선2</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1324,11 +1412,19 @@
           <t>010-9002-9046</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>무배당 DB손해보험 프리미엄</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>DB손해보험</t>
+        </is>
+      </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2025-08</t>
+          <t>인천지사</t>
         </is>
       </c>
     </row>
@@ -1343,14 +1439,14 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>윤서준</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>윤서준2</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>윤서준2</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>010-2225-3275</t>
@@ -1373,7 +1469,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>윤서준</t>
+          <t>박지원</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1391,11 +1487,19 @@
           <t>010-9025-9075</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>무배당 현대해상 평생케어</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>현대해상</t>
+        </is>
+      </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2025-08</t>
+          <t>경기지사</t>
         </is>
       </c>
     </row>
@@ -1410,14 +1514,14 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>윤서준</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>윤서준3</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>윤서준3</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>010-2232-3288</t>
@@ -1440,7 +1544,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>박지원3</t>
+          <t>신윤복2</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1458,11 +1562,19 @@
           <t>010-9048-9104</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>무배당 AIA 건강플랜</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>AIA생명</t>
+        </is>
+      </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2025-08</t>
+          <t>부산지사</t>
         </is>
       </c>
     </row>
@@ -1477,14 +1589,14 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>윤서준</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>윤서준4</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>윤서준4</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>010-2239-3301</t>
@@ -1507,7 +1619,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>박지원</t>
+          <t>윤서준</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1525,11 +1637,19 @@
           <t>010-9071-9133</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>무배당 푸르덴셜 가족사랑</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>푸르덴셜생명</t>
+        </is>
+      </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2025-08</t>
+          <t>대구지사</t>
         </is>
       </c>
     </row>
